--- a/resource/template/shortURL/template.xlsx
+++ b/resource/template/shortURL/template.xlsx
@@ -46,15 +46,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -508,12 +508,12 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,8 +638,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,29 +1176,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="31.5673076923077" customWidth="1"/>
-    <col min="2" max="2" width="35.8846153846154" customWidth="1"/>
-    <col min="3" max="3" width="24.6730769230769" customWidth="1"/>
+    <col min="2" max="2" width="35.8846153846154" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6730769230769" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
